--- a/Mini_project_German_Learning_Tool/German_vocab.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab.xlsx
@@ -236,9 +236,6 @@
     <t>viele</t>
   </si>
   <si>
-    <t>manz</t>
-  </si>
-  <si>
     <t>würst</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>about</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +844,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -896,10 +896,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
         <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>31</v>

--- a/Mini_project_German_Learning_Tool/German_vocab.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Meldung</t>
   </si>
@@ -267,6 +267,66 @@
   </si>
   <si>
     <t>many</t>
+  </si>
+  <si>
+    <t>langsam</t>
+  </si>
+  <si>
+    <t>verrückt</t>
+  </si>
+  <si>
+    <t>befangen</t>
+  </si>
+  <si>
+    <t>ruhig</t>
+  </si>
+  <si>
+    <t>komisch</t>
+  </si>
+  <si>
+    <t>eigenschaften</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>abenteuer</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>characteristics</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>biased</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>möglich</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>furchtbar</t>
+  </si>
+  <si>
+    <t>abscheulich</t>
   </si>
 </sst>
 </file>
@@ -600,13 +660,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -621,297 +685,372 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mini_project_German_Learning_Tool/German_vocab.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>Meldung</t>
   </si>
@@ -326,7 +326,82 @@
     <t>furchtbar</t>
   </si>
   <si>
-    <t>abscheulich</t>
+    <t>euch</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>einladen</t>
+  </si>
+  <si>
+    <t>to invite</t>
+  </si>
+  <si>
+    <t>ansehen</t>
+  </si>
+  <si>
+    <t>to watch</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>to mean</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>feiern sie</t>
+  </si>
+  <si>
+    <t>to celebrate</t>
+  </si>
+  <si>
+    <t>ankreuzen</t>
+  </si>
+  <si>
+    <t>to check</t>
+  </si>
+  <si>
+    <t>sich verabschieden</t>
+  </si>
+  <si>
+    <t>to farewell</t>
+  </si>
+  <si>
+    <t>besonders</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>Entscheidung</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>beschreiben</t>
+  </si>
+  <si>
+    <t>to describe</t>
+  </si>
+  <si>
+    <t>terrible</t>
   </si>
 </sst>
 </file>
@@ -660,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,10 +749,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -685,370 +760,474 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>78</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B50" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Mini_project_German_Learning_Tool/German_vocab.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Meldung</t>
   </si>
@@ -350,9 +350,6 @@
     <t>to mean</t>
   </si>
   <si>
-    <t>wer</t>
-  </si>
-  <si>
     <t>who</t>
   </si>
   <si>
@@ -402,6 +399,48 @@
   </si>
   <si>
     <t>terrible</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>vernünftig</t>
+  </si>
+  <si>
+    <t>resonable</t>
+  </si>
+  <si>
+    <t>annehmen</t>
+  </si>
+  <si>
+    <t>to accept</t>
+  </si>
+  <si>
+    <t>großzügig</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>förderer</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>frech</t>
+  </si>
+  <si>
+    <t>naughty</t>
   </si>
 </sst>
 </file>
@@ -735,16 +774,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -768,466 +809,514 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B56" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Mini_project_German_Learning_Tool/German_vocab.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab.xlsx
@@ -41,406 +41,406 @@
     <t>beklagen</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>to mourn</t>
+  </si>
+  <si>
+    <t>anhalten</t>
+  </si>
+  <si>
+    <t>to stop</t>
+  </si>
+  <si>
+    <t>Katze</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>chemie</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>dusche</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>familie</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>to give</t>
+  </si>
+  <si>
+    <t>halten</t>
+  </si>
+  <si>
+    <t>to hold</t>
+  </si>
+  <si>
+    <t>idee</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>jacke</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>letzte</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>nacht</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>opa</t>
+  </si>
+  <si>
+    <t>grandpa</t>
+  </si>
+  <si>
+    <t>paar</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>qualität</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>rabatt</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>sache</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>tasche</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>langsam</t>
+  </si>
+  <si>
+    <t>verrückt</t>
+  </si>
+  <si>
+    <t>befangen</t>
+  </si>
+  <si>
+    <t>ruhig</t>
+  </si>
+  <si>
+    <t>komisch</t>
+  </si>
+  <si>
+    <t>eigenschaften</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>abenteuer</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>characteristics</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>biased</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>möglich</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>furchtbar</t>
+  </si>
+  <si>
+    <t>euch</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>einladen</t>
+  </si>
+  <si>
+    <t>to invite</t>
+  </si>
+  <si>
+    <t>ansehen</t>
+  </si>
+  <si>
+    <t>to watch</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>to mean</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>feiern sie</t>
+  </si>
+  <si>
+    <t>to celebrate</t>
+  </si>
+  <si>
+    <t>ankreuzen</t>
+  </si>
+  <si>
+    <t>to check</t>
+  </si>
+  <si>
+    <t>sich verabschieden</t>
+  </si>
+  <si>
+    <t>to farewell</t>
+  </si>
+  <si>
+    <t>besonders</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>Entscheidung</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>beschreiben</t>
+  </si>
+  <si>
+    <t>to describe</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>vernünftig</t>
+  </si>
+  <si>
+    <t>resonable</t>
+  </si>
+  <si>
+    <t>annehmen</t>
+  </si>
+  <si>
+    <t>to accept</t>
+  </si>
+  <si>
+    <t>großzügig</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>förderer</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>frech</t>
+  </si>
+  <si>
+    <t>naughty</t>
+  </si>
+  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Ö</t>
-  </si>
-  <si>
-    <t>Ä</t>
-  </si>
-  <si>
-    <t>Ü</t>
-  </si>
-  <si>
-    <t>to mourn</t>
-  </si>
-  <si>
-    <t>anhalten</t>
-  </si>
-  <si>
-    <t>to stop</t>
-  </si>
-  <si>
-    <t>Katze</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>chemie</t>
-  </si>
-  <si>
-    <t>chemical</t>
-  </si>
-  <si>
-    <t>dusche</t>
-  </si>
-  <si>
-    <t>shower</t>
-  </si>
-  <si>
-    <t>familie</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>to give</t>
-  </si>
-  <si>
-    <t>halten</t>
-  </si>
-  <si>
-    <t>to hold</t>
-  </si>
-  <si>
-    <t>idee</t>
-  </si>
-  <si>
-    <t>idea</t>
-  </si>
-  <si>
-    <t>jacke</t>
-  </si>
-  <si>
-    <t>jacket</t>
-  </si>
-  <si>
-    <t>letzte</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>nacht</t>
-  </si>
-  <si>
-    <t>night</t>
-  </si>
-  <si>
-    <t>opa</t>
-  </si>
-  <si>
-    <t>grandpa</t>
-  </si>
-  <si>
-    <t>paar</t>
-  </si>
-  <si>
-    <t>pair</t>
-  </si>
-  <si>
-    <t>qualität</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>rabatt</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>sache</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>tasche</t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>und</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>viele</t>
-  </si>
-  <si>
-    <t>würst</t>
-  </si>
-  <si>
-    <t>sausage</t>
-  </si>
-  <si>
-    <t>zeit</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>ähnlich</t>
-  </si>
-  <si>
-    <t>similar</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>to open</t>
-  </si>
-  <si>
-    <t>über</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>langsam</t>
-  </si>
-  <si>
-    <t>verrückt</t>
-  </si>
-  <si>
-    <t>befangen</t>
-  </si>
-  <si>
-    <t>ruhig</t>
-  </si>
-  <si>
-    <t>komisch</t>
-  </si>
-  <si>
-    <t>eigenschaften</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>abenteuer</t>
-  </si>
-  <si>
-    <t>adventure</t>
-  </si>
-  <si>
-    <t>characteristics</t>
-  </si>
-  <si>
-    <t>calm</t>
-  </si>
-  <si>
-    <t>biased</t>
-  </si>
-  <si>
-    <t>zwielichtig</t>
-  </si>
-  <si>
-    <t>dodgy</t>
-  </si>
-  <si>
-    <t>möglich</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>furchtbar</t>
-  </si>
-  <si>
-    <t>euch</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>einladen</t>
-  </si>
-  <si>
-    <t>to invite</t>
-  </si>
-  <si>
-    <t>ansehen</t>
-  </si>
-  <si>
-    <t>to watch</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>to mean</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>wem</t>
-  </si>
-  <si>
-    <t>feiern sie</t>
-  </si>
-  <si>
-    <t>to celebrate</t>
-  </si>
-  <si>
-    <t>ankreuzen</t>
-  </si>
-  <si>
-    <t>to check</t>
-  </si>
-  <si>
-    <t>sich verabschieden</t>
-  </si>
-  <si>
-    <t>to farewell</t>
-  </si>
-  <si>
-    <t>besonders</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>Entscheidung</t>
-  </si>
-  <si>
-    <t>decision</t>
-  </si>
-  <si>
-    <t>unterstützen</t>
-  </si>
-  <si>
-    <t>to support</t>
-  </si>
-  <si>
-    <t>beschreiben</t>
-  </si>
-  <si>
-    <t>to describe</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>vielleicht</t>
-  </si>
-  <si>
-    <t>würde</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>vernünftig</t>
-  </si>
-  <si>
-    <t>resonable</t>
-  </si>
-  <si>
-    <t>annehmen</t>
-  </si>
-  <si>
-    <t>to accept</t>
-  </si>
-  <si>
-    <t>großzügig</t>
-  </si>
-  <si>
-    <t>generous</t>
-  </si>
-  <si>
-    <t>förderer</t>
-  </si>
-  <si>
-    <t>sponsor</t>
-  </si>
-  <si>
-    <t>frech</t>
-  </si>
-  <si>
-    <t>naughty</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,56 +790,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -847,64 +847,64 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
         <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
         <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
         <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -917,152 +917,152 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
         <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
         <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
         <v>110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
         <v>137</v>
-      </c>
-      <c r="B19" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
         <v>135</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
         <v>133</v>
-      </c>
-      <c r="B23" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
         <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,251 +1073,251 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
         <v>106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
         <v>59</v>
       </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
         <v>114</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
         <v>67</v>
       </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
         <v>120</v>
-      </c>
-      <c r="B44" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
         <v>129</v>
       </c>
-      <c r="B45" t="s">
-        <v>130</v>
-      </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
         <v>127</v>
-      </c>
-      <c r="B50" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
         <v>70</v>
-      </c>
-      <c r="B51" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
         <v>72</v>
       </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
         <v>93</v>
-      </c>
-      <c r="B53" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
         <v>74</v>
       </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
         <v>76</v>
       </c>
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
         <v>78</v>
       </c>
-      <c r="B56" t="s">
-        <v>79</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Mini_project_German_Learning_Tool/German_vocab.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Meldung</t>
   </si>
@@ -441,6 +441,30 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>glücklich</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>herz</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>gleich</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>fauler</t>
+  </si>
+  <si>
+    <t>lazy</t>
   </si>
 </sst>
 </file>
@@ -774,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,379 +968,411 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>105</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>83</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>63</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>113</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>65</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>66</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>67</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>119</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>77</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B60" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Mini_project_German_Learning_Tool/German_vocab.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Meldung</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>lazy</t>
+  </si>
+  <si>
+    <t>Hübsh</t>
+  </si>
+  <si>
+    <t>Pretty</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -510,14 +516,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,19 +812,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.37890625" customWidth="true"/>
+    <col min="2" max="2" width="12.93359375" customWidth="true"/>
+    <col min="5" max="5" width="28.5546875" customWidth="true"/>
+    <col min="6" max="6" width="27.77734375" customWidth="true"/>
+    <col min="3" max="3" width="2.93359375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -823,7 +836,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -831,7 +844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -839,7 +852,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -847,7 +860,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -855,7 +868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -866,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -874,7 +887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -882,7 +895,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -890,7 +903,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -901,7 +914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -912,7 +925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -923,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -931,7 +944,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -939,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -947,7 +960,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -955,7 +968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -966,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -974,7 +987,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -982,7 +995,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -990,7 +1003,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -998,7 +1011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -1006,7 +1019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1017,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -1025,7 +1038,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -1033,7 +1046,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -1041,7 +1054,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1052,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -1060,18 +1073,16 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" x14ac:dyDescent="0.3">
+      <c r="A29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="0"/>
+    </row>
+    <row r="30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1082,7 +1093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1094,7 +1105,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -1102,7 +1113,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -1114,7 +1125,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1123,7 +1134,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -1142,7 +1153,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1172,7 +1183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -1194,7 +1205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1205,7 +1216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1213,7 +1224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -1224,7 +1235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -1232,7 +1243,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -1243,7 +1254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -1254,7 +1265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -1262,7 +1273,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -1273,7 +1284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -1289,7 +1300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -1297,7 +1308,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>108</v>
       </c>
@@ -1308,7 +1319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -1316,7 +1327,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -1324,7 +1335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -1354,7 +1365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>

--- a/Mini_project_German_Learning_Tool/German_vocab.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="786">
   <si>
     <t>anhalten</t>
   </si>
@@ -492,6 +492,1896 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>sich verabschieden</t>
+  </si>
+  <si>
+    <t>tasche</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>vernünftig</t>
+  </si>
+  <si>
+    <t>verrückt</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>to farewell</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>resonable</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Schwierig</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>tasche</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>vernünftig</t>
+  </si>
+  <si>
+    <t>verrückt</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>resonable</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Streng</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>Streng</t>
+  </si>
+  <si>
+    <t>tasche</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>vernünftig</t>
+  </si>
+  <si>
+    <t>verrückt</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>resonable</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Sondere</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Außer</t>
+  </si>
+  <si>
+    <t>befangen</t>
+  </si>
+  <si>
+    <t>beklagen</t>
+  </si>
+  <si>
+    <t>beschreiben</t>
+  </si>
+  <si>
+    <t>besonders</t>
+  </si>
+  <si>
+    <t>chemie</t>
+  </si>
+  <si>
+    <t>dusche</t>
+  </si>
+  <si>
+    <t>eigenschaften</t>
+  </si>
+  <si>
+    <t>einladen</t>
+  </si>
+  <si>
+    <t>erhalten</t>
+  </si>
+  <si>
+    <t>Entscheidung</t>
+  </si>
+  <si>
+    <t>Erwachsen</t>
+  </si>
+  <si>
+    <t>euch</t>
+  </si>
+  <si>
+    <t>familie</t>
+  </si>
+  <si>
+    <t>fauler</t>
+  </si>
+  <si>
+    <t>feiern sie</t>
+  </si>
+  <si>
+    <t>frech</t>
+  </si>
+  <si>
+    <t>furchtbar</t>
+  </si>
+  <si>
+    <t>förderer</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>gleich</t>
+  </si>
+  <si>
+    <t>glücklich</t>
+  </si>
+  <si>
+    <t>großzügig</t>
+  </si>
+  <si>
+    <t>halten</t>
+  </si>
+  <si>
+    <t>Heiraten</t>
+  </si>
+  <si>
+    <t>Hübsh</t>
+  </si>
+  <si>
+    <t>Interessant</t>
+  </si>
+  <si>
+    <t>Junge</t>
+  </si>
+  <si>
+    <t>Kasten</t>
+  </si>
+  <si>
+    <t>komisch</t>
+  </si>
+  <si>
+    <t>langsam</t>
+  </si>
+  <si>
+    <t>letzte</t>
+  </si>
+  <si>
+    <t>Meldung</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>möglich</t>
+  </si>
+  <si>
+    <t>nacht</t>
+  </si>
+  <si>
+    <t>Oben</t>
+  </si>
+  <si>
+    <t>paar</t>
+  </si>
+  <si>
+    <t>qualität</t>
+  </si>
+  <si>
+    <t>rabatt</t>
+  </si>
+  <si>
+    <t>ruhig</t>
+  </si>
+  <si>
+    <t>sache</t>
+  </si>
+  <si>
+    <t>Schwierig</t>
+  </si>
+  <si>
+    <t>sich verabschieden</t>
+  </si>
+  <si>
+    <t>Sondere</t>
+  </si>
+  <si>
+    <t>Streng</t>
+  </si>
+  <si>
+    <t>tasche</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>vernünftig</t>
+  </si>
+  <si>
+    <t>verrückt</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>Except</t>
+  </si>
+  <si>
+    <t>biased</t>
+  </si>
+  <si>
+    <t>to mourn</t>
+  </si>
+  <si>
+    <t>to describe</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>characteristics</t>
+  </si>
+  <si>
+    <t>to invite</t>
+  </si>
+  <si>
+    <t>to receive</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>to celebrate</t>
+  </si>
+  <si>
+    <t>naughty</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>to give</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>to hold</t>
+  </si>
+  <si>
+    <t>Marry</t>
+  </si>
+  <si>
+    <t>Pretty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>to mean</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>Above</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>to farewell</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>resonable</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Verwandte</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Verwandte</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Verwandte</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>langsam</t>
+  </si>
+  <si>
+    <t>letzte</t>
+  </si>
+  <si>
+    <t>Meldung</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>möglich</t>
+  </si>
+  <si>
+    <t>nacht</t>
+  </si>
+  <si>
+    <t>Oben</t>
+  </si>
+  <si>
+    <t>paar</t>
+  </si>
+  <si>
+    <t>qualität</t>
+  </si>
+  <si>
+    <t>rabatt</t>
+  </si>
+  <si>
+    <t>ruhig</t>
+  </si>
+  <si>
+    <t>sache</t>
+  </si>
+  <si>
+    <t>Schwierig</t>
+  </si>
+  <si>
+    <t>sich verabschieden</t>
+  </si>
+  <si>
+    <t>Sondere</t>
+  </si>
+  <si>
+    <t>Streng</t>
+  </si>
+  <si>
+    <t>tasche</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>vernünftig</t>
+  </si>
+  <si>
+    <t>verrückt</t>
+  </si>
+  <si>
+    <t>Verwandte</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>to mean</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>Above</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>to farewell</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>resonable</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Kreativ</t>
+  </si>
+  <si>
+    <t>Creative</t>
+  </si>
+  <si>
+    <t>ruhig</t>
+  </si>
+  <si>
+    <t>sache</t>
+  </si>
+  <si>
+    <t>Schwierig</t>
+  </si>
+  <si>
+    <t>sich verabschieden</t>
+  </si>
+  <si>
+    <t>Sondere</t>
+  </si>
+  <si>
+    <t>Streng</t>
+  </si>
+  <si>
+    <t>tasche</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>vernünftig</t>
+  </si>
+  <si>
+    <t>verrückt</t>
+  </si>
+  <si>
+    <t>Verwandte</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>to farewell</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>resonable</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Realistisch</t>
+  </si>
+  <si>
+    <t>Realistic</t>
+  </si>
+  <si>
+    <t>Oben</t>
+  </si>
+  <si>
+    <t>paar</t>
+  </si>
+  <si>
+    <t>qualität</t>
+  </si>
+  <si>
+    <t>rabatt</t>
+  </si>
+  <si>
+    <t>Realistisch</t>
+  </si>
+  <si>
+    <t>ruhig</t>
+  </si>
+  <si>
+    <t>sache</t>
+  </si>
+  <si>
+    <t>Schwierig</t>
+  </si>
+  <si>
+    <t>sich verabschieden</t>
+  </si>
+  <si>
+    <t>Sondere</t>
+  </si>
+  <si>
+    <t>Streng</t>
+  </si>
+  <si>
+    <t>tasche</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>vernünftig</t>
+  </si>
+  <si>
+    <t>verrückt</t>
+  </si>
+  <si>
+    <t>Verwandte</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>vielleicht</t>
+  </si>
+  <si>
+    <t>wem</t>
+  </si>
+  <si>
+    <t>würde</t>
+  </si>
+  <si>
+    <t>würst</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
+    <t>zeit</t>
+  </si>
+  <si>
+    <t>zwielichtig</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>Above</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>Realistic</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>to farewell</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>resonable</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>To show</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Nervös</t>
+  </si>
+  <si>
+    <t>Nervous</t>
+  </si>
+  <si>
+    <t>Überlegen</t>
+  </si>
+  <si>
+    <t>Superior</t>
   </si>
 </sst>
 </file>
@@ -529,7 +2419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -537,14 +2427,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,22 +2717,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.37890625" customWidth="true"/>
+    <col min="2" max="2" width="12.93359375" customWidth="true"/>
+    <col min="3" max="3" width="2.93359375" customWidth="true"/>
+    <col min="5" max="5" width="28.5546875" customWidth="true"/>
+    <col min="6" max="6" width="27.77734375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -851,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -867,7 +2759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -875,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -883,561 +2775,701 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
+    <row r="6" x14ac:dyDescent="0.3">
+      <c r="A6" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="0"/>
+    </row>
+    <row r="7" x14ac:dyDescent="0.3">
+      <c r="A7" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="0"/>
+    </row>
+    <row r="8" x14ac:dyDescent="0.3">
+      <c r="A8" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.3">
+      <c r="A9" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="0"/>
+    </row>
+    <row r="10" x14ac:dyDescent="0.3">
+      <c r="A10" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" x14ac:dyDescent="0.3">
+      <c r="A11" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="0"/>
+    </row>
+    <row r="12" x14ac:dyDescent="0.3">
+      <c r="A12" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.3">
+      <c r="A14" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" x14ac:dyDescent="0.3">
+      <c r="A16" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" x14ac:dyDescent="0.3">
+      <c r="A17" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C18" s="0"/>
+    </row>
+    <row r="19" x14ac:dyDescent="0.3">
+      <c r="A19" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="0"/>
+    </row>
+    <row r="20" x14ac:dyDescent="0.3">
+      <c r="A20" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" s="0"/>
+    </row>
+    <row r="22" x14ac:dyDescent="0.3">
+      <c r="A22" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" s="0"/>
+    </row>
+    <row r="23" x14ac:dyDescent="0.3">
+      <c r="A23" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="0"/>
+    </row>
+    <row r="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="0"/>
+    </row>
+    <row r="25" x14ac:dyDescent="0.3">
+      <c r="A25" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="0"/>
+    </row>
+    <row r="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.3">
+      <c r="A27" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="0"/>
+    </row>
+    <row r="28" x14ac:dyDescent="0.3">
+      <c r="A28" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" s="0"/>
+    </row>
+    <row r="29" x14ac:dyDescent="0.3">
+      <c r="A29" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="0"/>
+    </row>
+    <row r="30" x14ac:dyDescent="0.3">
+      <c r="A30" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>444</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
+    <row r="31" x14ac:dyDescent="0.3">
+      <c r="A31" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C31" s="0"/>
+    </row>
+    <row r="32" x14ac:dyDescent="0.3">
+      <c r="A32" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C32" s="0"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
+    <row r="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>445</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" t="s">
-        <v>130</v>
+    <row r="34" x14ac:dyDescent="0.3">
+      <c r="A34" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.3">
+      <c r="A35" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.3">
+      <c r="A36" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C36" s="0"/>
+    </row>
+    <row r="37" x14ac:dyDescent="0.3">
+      <c r="A37" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="C37" s="0"/>
+    </row>
+    <row r="38" x14ac:dyDescent="0.3">
+      <c r="A38" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.3">
+      <c r="A39" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="C39" s="0"/>
+    </row>
+    <row r="40" x14ac:dyDescent="0.3">
+      <c r="A40" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.3">
+      <c r="A41" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="C41" s="0"/>
+    </row>
+    <row r="42" x14ac:dyDescent="0.3">
+      <c r="A42" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C42" s="0"/>
+    </row>
+    <row r="43" x14ac:dyDescent="0.3">
+      <c r="A43" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.3">
+      <c r="A44" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="C44" s="0"/>
+    </row>
+    <row r="45" x14ac:dyDescent="0.3">
+      <c r="A45" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.3">
+      <c r="A46" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.3">
+      <c r="A47" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.3">
+      <c r="A48" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.3">
+      <c r="A49" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="C49" s="0"/>
+    </row>
+    <row r="50" x14ac:dyDescent="0.3">
+      <c r="A50" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="C50" s="0"/>
+    </row>
+    <row r="51" x14ac:dyDescent="0.3">
+      <c r="A51" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.3">
+      <c r="A52" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="C52" s="0"/>
+    </row>
+    <row r="53" x14ac:dyDescent="0.3">
+      <c r="A53" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="C53" s="0"/>
+    </row>
+    <row r="54" x14ac:dyDescent="0.3">
+      <c r="A54" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="C54" s="0"/>
+    </row>
+    <row r="55" x14ac:dyDescent="0.3">
+      <c r="A55" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="C55" s="0"/>
+    </row>
+    <row r="56" x14ac:dyDescent="0.3">
+      <c r="A56" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.3">
+      <c r="A57" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.3">
+      <c r="A58" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="C58" s="0"/>
+    </row>
+    <row r="59" x14ac:dyDescent="0.3">
+      <c r="A59" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>753</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>105</v>
-      </c>
-      <c r="B64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" t="s">
-        <v>152</v>
-      </c>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.3">
+      <c r="A60" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" x14ac:dyDescent="0.3">
+      <c r="A61" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C61" s="0"/>
+    </row>
+    <row r="62" x14ac:dyDescent="0.3">
+      <c r="A62" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C62" s="0"/>
+    </row>
+    <row r="63" x14ac:dyDescent="0.3">
+      <c r="A63" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C63" s="0"/>
+    </row>
+    <row r="64" x14ac:dyDescent="0.3">
+      <c r="A64" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="C64" s="0"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="C65" s="0"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="C67" s="0"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C68" s="0"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="C71" s="0"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C72" s="0"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="C76" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
